--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Home/Python/pythonpoker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Home/Python/PokerBotBattle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046F6F0-9E8A-7044-9FD9-11B90EA7BF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492F5FE-3328-E246-8BB9-5E37459EB9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D1ADD933-2B3C-1D4B-86E3-C552A80188A9}"/>
   </bookViews>
@@ -16,26 +16,32 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$48</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$49</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$A$50</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$47:$H$47</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$48:$H$48</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$49:$H$49</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$50:$H$50</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$51:$H$51</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$A$49</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$A$50</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$A$51</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$B$47:$H$47</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$B$48:$H$48</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$B$49:$H$49</definedName>
-    <definedName name="_xlchart.v2.16" hidden="1">Sheet1!$B$50:$H$50</definedName>
-    <definedName name="_xlchart.v2.17" hidden="1">Sheet1!$B$51:$H$51</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$A$48</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1:$I$55</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$56</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$57</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$59</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$60</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$54:$I$55</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$56:$I$56</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$57:$I$57</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$58:$I$58</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$59:$I$59</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$60:$I$60</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1:$I$55</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$56</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$59:$I$59</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$60:$I$60</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$57</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$A$58</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$59</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$60</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$54:$I$55</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$56:$I$56</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$57:$I$57</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$58:$I$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,12 +62,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>NewBot</t>
-  </si>
-  <si>
-    <t>low</t>
   </si>
   <si>
     <t>Hermes</t>
@@ -94,19 +97,28 @@
     <t>TOP3</t>
   </si>
   <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
     <t>WIN</t>
   </si>
   <si>
     <t>Simply</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Low + Mid</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Super</t>
   </si>
 </sst>
 </file>
@@ -114,7 +126,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,7 +159,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -169,7 +181,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -201,8 +213,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>SUPER</a:t>
+              <a:t>Super Table</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -231,7 +255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -796,6 +820,175 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-4318-894B-9D0E-FF881A9D876C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simply</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$39:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF12-4346-9E5C-F538B34B547E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF12-4346-9E5C-F538B34B547E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -852,7 +1045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="220830704"/>
@@ -911,7 +1104,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="291540288"/>
@@ -953,7 +1146,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -983,7 +1176,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -997,7 +1190,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1029,8 +1222,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>LOW</a:t>
+              <a:t>Low</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1059,7 +1268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1845,6 +2054,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-3BAF-8849-A90E-1DE74F7D73E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B18-394F-AB71-91BDA93F2E41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1901,7 +2223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437910384"/>
@@ -1960,7 +2282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="437829632"/>
@@ -2002,7 +2324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2032,7 +2354,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2046,7 +2368,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2078,8 +2400,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>MID</a:t>
+              <a:t>Mid Table</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2108,7 +2442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2894,6 +3228,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7B31-B64E-A554-15EFAC3DA7BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B00C-1F44-97A9-95C43A52778F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2950,7 +3397,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="363040016"/>
@@ -3009,7 +3456,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="489448032"/>
@@ -3051,7 +3498,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3081,7 +3528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3095,7 +3542,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3127,8 +3574,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>HIGH</a:t>
+              <a:t>High</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3157,7 +3620,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3943,6 +4406,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E896-CF44-A509-BFA35B8A42DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$27:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A19-3848-A6ED-03F57668FFA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3999,7 +4575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458014736"/>
@@ -4058,7 +4634,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="457321232"/>
@@ -4100,7 +4676,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4130,7 +4706,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4144,7 +4720,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4176,7 +4752,22 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>TOP3</a:t>
+              <a:t>TOP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> 3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4206,7 +4797,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4226,7 +4817,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>high</c:v>
+                  <c:v>High</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4243,9 +4834,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$H$47</c:f>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -4266,16 +4857,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$H$48</c:f>
+              <c:f>Sheet1!$B$48:$I$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>46.93</c:v>
                 </c:pt>
@@ -4296,6 +4890,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4315,7 +4912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mid</c:v>
+                  <c:v>Mid</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4332,9 +4929,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$H$47</c:f>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -4355,16 +4952,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$49:$H$49</c:f>
+              <c:f>Sheet1!$B$49:$I$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>56.75</c:v>
                 </c:pt>
@@ -4385,6 +4985,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>67.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4404,7 +5007,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>low</c:v>
+                  <c:v>Low</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4421,9 +5024,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$H$47</c:f>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -4444,16 +5047,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$H$50</c:f>
+              <c:f>Sheet1!$B$50:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>62.2</c:v>
                 </c:pt>
@@ -4474,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>85.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,6 +5101,9 @@
               <c:f>Sheet1!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low + Mid</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4507,9 +5119,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$H$47</c:f>
+              <c:f>Sheet1!$B$47:$I$47</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -4530,16 +5142,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$H$51</c:f>
+              <c:f>Sheet1!$B$51:$I$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>165.88</c:v>
                 </c:pt>
@@ -4560,6 +5175,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>194.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>255.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4624,7 +5242,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="363130992"/>
@@ -4683,7 +5301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="761382336"/>
@@ -4725,7 +5343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4755,7 +5373,763 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Win</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Super</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NewBot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Good_Bot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GiveMeAJob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hercules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Botimus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$56:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-796A-0145-A07C-2E72C7585652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NewBot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Good_Bot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GiveMeAJob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hercules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Botimus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$57:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-796A-0145-A07C-2E72C7585652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NewBot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Good_Bot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GiveMeAJob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hercules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Botimus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$58:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-796A-0145-A07C-2E72C7585652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NewBot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Good_Bot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GiveMeAJob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hercules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Botimus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-796A-0145-A07C-2E72C7585652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Low + Mid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>NewBot</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hermes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Good_Bot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GiveMeAJob</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hercules</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Botimus</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Simply</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$60:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>78.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.239999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-796A-0145-A07C-2E72C7585652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1986740735"/>
+        <c:axId val="1986711103"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1986740735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986711103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1986711103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1986740735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4966,6 +6340,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7533,18 +8947,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7681,16 +9598,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>353112</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>160904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>154554</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7710,6 +9627,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE06EE17-0805-AD3B-9DF2-B45A47B7BCC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8015,10 +9968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825FD33D-8012-D14F-AAFB-06385A6474E2}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="O44" zoomScale="172" workbookViewId="0">
+      <selection activeCell="AA53" sqref="AA53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8029,35 +9982,38 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8082,8 +10038,11 @@
       <c r="H3" s="1">
         <v>33</v>
       </c>
+      <c r="I3" s="1">
+        <v>27.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -8108,8 +10067,11 @@
       <c r="H4" s="1">
         <v>37.700000000000003</v>
       </c>
+      <c r="I4" s="1">
+        <v>64.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -8134,8 +10096,11 @@
       <c r="H5" s="1">
         <v>14.5</v>
       </c>
+      <c r="I5" s="1">
+        <v>7.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -8160,8 +10125,11 @@
       <c r="H6" s="1">
         <v>5.7</v>
       </c>
+      <c r="I6" s="1">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -8186,8 +10154,11 @@
       <c r="H7" s="1">
         <v>3</v>
       </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -8212,8 +10183,11 @@
       <c r="H8" s="1">
         <v>1.7</v>
       </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -8238,8 +10212,11 @@
       <c r="H9" s="1">
         <v>1.2</v>
       </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -8264,8 +10241,11 @@
       <c r="H10" s="1">
         <v>1.2</v>
       </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -8290,8 +10270,11 @@
       <c r="H11" s="1">
         <v>0.9</v>
       </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -8316,36 +10299,42 @@
       <c r="H12" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -8370,8 +10359,11 @@
       <c r="H15" s="1">
         <v>41.7</v>
       </c>
+      <c r="I15" s="1">
+        <v>46.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -8396,8 +10388,11 @@
       <c r="H16" s="1">
         <v>13</v>
       </c>
+      <c r="I16" s="1">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -8422,8 +10417,11 @@
       <c r="H17" s="1">
         <v>12.8</v>
       </c>
+      <c r="I17" s="1">
+        <v>15.7</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -8448,8 +10446,11 @@
       <c r="H18" s="1">
         <v>10.3</v>
       </c>
+      <c r="I18" s="1">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -8474,8 +10475,11 @@
       <c r="H19" s="1">
         <v>8.5</v>
       </c>
+      <c r="I19" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -8500,8 +10504,11 @@
       <c r="H20" s="1">
         <v>6</v>
       </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -8526,8 +10533,11 @@
       <c r="H21" s="1">
         <v>3.3</v>
       </c>
+      <c r="I21" s="1">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>8</v>
       </c>
@@ -8552,8 +10562,11 @@
       <c r="H22" s="1">
         <v>1.9</v>
       </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>9</v>
       </c>
@@ -8578,8 +10591,11 @@
       <c r="H23" s="1">
         <v>1.3</v>
       </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>10</v>
       </c>
@@ -8604,36 +10620,42 @@
       <c r="H24" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -8658,8 +10680,11 @@
       <c r="H27" s="1">
         <v>27.1</v>
       </c>
+      <c r="I27" s="1">
+        <v>39.299999999999997</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -8684,8 +10709,11 @@
       <c r="H28" s="1">
         <v>8</v>
       </c>
+      <c r="I28" s="1">
+        <v>15.9</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -8710,8 +10738,11 @@
       <c r="H29" s="1">
         <v>7</v>
       </c>
+      <c r="I29" s="1">
+        <v>10.9</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -8736,8 +10767,11 @@
       <c r="H30" s="1">
         <v>9.3000000000000007</v>
       </c>
+      <c r="I30" s="1">
+        <v>7.8</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -8762,8 +10796,11 @@
       <c r="H31" s="1">
         <v>11.4</v>
       </c>
+      <c r="I31" s="1">
+        <v>7.9</v>
+      </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -8788,8 +10825,11 @@
       <c r="H32" s="1">
         <v>11.7</v>
       </c>
+      <c r="I32" s="1">
+        <v>6.9</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -8814,8 +10854,11 @@
       <c r="H33" s="1">
         <v>8.6</v>
       </c>
+      <c r="I33" s="1">
+        <v>5.2</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -8840,8 +10883,11 @@
       <c r="H34" s="1">
         <v>8</v>
       </c>
+      <c r="I34" s="1">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -8866,8 +10912,11 @@
       <c r="H35" s="1">
         <v>5.8</v>
       </c>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -8892,36 +10941,42 @@
       <c r="H36" s="1">
         <v>2.9</v>
       </c>
+      <c r="I36" s="1">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H38" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -8943,8 +10998,11 @@
       <c r="G39" s="1">
         <v>2</v>
       </c>
+      <c r="I39" s="1">
+        <v>21.9</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -8966,8 +11024,11 @@
       <c r="G40" s="1">
         <v>20.6</v>
       </c>
+      <c r="I40" s="1">
+        <v>17.8</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -8989,8 +11050,11 @@
       <c r="G41" s="1">
         <v>22.6</v>
       </c>
+      <c r="I41" s="1">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -9012,8 +11076,11 @@
       <c r="G42" s="1">
         <v>19.100000000000001</v>
       </c>
+      <c r="I42" s="1">
+        <v>10.1</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -9035,8 +11102,11 @@
       <c r="G43" s="1">
         <v>14.6</v>
       </c>
+      <c r="I43" s="1">
+        <v>12.8</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -9058,8 +11128,11 @@
       <c r="G44" s="1">
         <v>11.6</v>
       </c>
+      <c r="I44" s="1">
+        <v>13.1</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>7</v>
       </c>
@@ -9081,38 +11154,44 @@
       <c r="G45" s="1">
         <v>9.6</v>
       </c>
+      <c r="I45" s="1">
+        <v>10.3</v>
+      </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" s="1">
         <v>46.93</v>
@@ -9135,10 +11214,13 @@
       <c r="H48" s="1">
         <v>42.14</v>
       </c>
+      <c r="I48" s="1">
+        <v>66.099999999999994</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1">
         <v>56.75</v>
@@ -9161,10 +11243,13 @@
       <c r="H49" s="1">
         <v>67.52</v>
       </c>
+      <c r="I49" s="1">
+        <v>89.68</v>
+      </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1">
         <v>62.2</v>
@@ -9187,14 +11272,20 @@
       <c r="H50" s="1">
         <v>85.12</v>
       </c>
+      <c r="I50" s="1">
+        <v>99.68</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B51" s="1">
         <f>SUM(B48:B50)</f>
         <v>165.88</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ref="C51:H51" si="0">SUM(C48:C50)</f>
+        <f t="shared" ref="C51:G51" si="0">SUM(C48:C50)</f>
         <v>169.53</v>
       </c>
       <c r="D51" s="1">
@@ -9217,38 +11308,45 @@
         <f>SUM(H48:H50)</f>
         <v>194.78</v>
       </c>
+      <c r="I51" s="1">
+        <f>SUM(I48:I50)</f>
+        <v>255.46</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H55" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
         <v>25.7</v>
@@ -9268,10 +11366,13 @@
       <c r="G56" s="1">
         <v>1.96</v>
       </c>
+      <c r="I56" s="1">
+        <v>21.88</v>
+      </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1">
         <v>31.5</v>
@@ -9294,10 +11395,13 @@
       <c r="H57" s="1">
         <v>27.14</v>
       </c>
+      <c r="I57" s="1">
+        <v>39.299999999999997</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B58" s="1">
         <v>43.1</v>
@@ -9320,10 +11424,13 @@
       <c r="H58" s="1">
         <v>41.74</v>
       </c>
+      <c r="I58" s="1">
+        <v>46.5</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1">
         <v>35.700000000000003</v>
@@ -9346,8 +11453,14 @@
       <c r="H59" s="1">
         <v>32.979999999999997</v>
       </c>
+      <c r="I59" s="1">
+        <v>27.74</v>
+      </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B60" s="1">
         <f>SUM(B58:B59)</f>
         <v>78.800000000000011</v>
@@ -9365,7 +11478,7 @@
         <v>76.28</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
+        <f>SUM(F58:F59)</f>
         <v>64.97999999999999</v>
       </c>
       <c r="G60" s="1">
@@ -9375,6 +11488,10 @@
       <c r="H60" s="1">
         <f t="shared" si="1"/>
         <v>74.72</v>
+      </c>
+      <c r="I60" s="1">
+        <f>SUM(I58:I59)</f>
+        <v>74.239999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Home/Python/PokerBotBattle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492F5FE-3328-E246-8BB9-5E37459EB9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A59CE0-EB24-2E44-A9AC-FF2AA079E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D1ADD933-2B3C-1D4B-86E3-C552A80188A9}"/>
   </bookViews>
@@ -16,30 +16,92 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1:$I$55</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$56</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$A$57</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$A$58</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$59</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$60</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$B$54:$I$55</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$56:$I$56</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$57:$I$57</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$B$58:$I$58</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$B$59:$I$59</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$B$60:$I$60</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1:$I$55</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$56</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$B$59:$I$59</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$B$60:$I$60</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$57</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$A$58</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$59</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$60</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$54:$I$55</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$56:$I$56</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$57:$I$57</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$58:$I$58</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$62:$A$63</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$64:$A$73</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$62:$B$62</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$64:$B$73</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$62:$C$63</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$64:$C$73</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$62:$D$63</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$D$64:$D$73</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$62:$E$63</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$64:$E$73</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$62:$F$63</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$F$64:$F$73</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$62:$G$63</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$62:$H$63</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$64:$H$73</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$1:$H$63</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$62:$H$63</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$64:$H$64</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$65:$H$65</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$66:$H$66</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$67:$H$67</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$68:$H$68</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$69:$H$69</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$70:$H$70</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$71:$H$71</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$72:$H$72</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$A$73:$H$73</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$A$64:$A$73</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$B$62:$B$62</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$B$64:$B$73</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$C$62:$C$63</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$C$64:$C$73</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$D$62:$D$63</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$D$64:$D$73</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$E$62:$E$63</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$E$64:$E$73</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$F$62:$F$63</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$F$64:$F$73</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$G$62:$G$63</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$H$62:$H$63</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$H$64:$H$73</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$A$64:$A$73</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$B$62:$B$62</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$64:$B$73</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$C$62:$C$63</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$C$64:$C$73</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$D$62:$D$63</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$D$64:$D$73</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$E$62:$E$63</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$E$64:$E$73</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$F$62:$F$63</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$F$64:$F$73</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$G$62:$G$63</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$H$62:$H$63</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$H$64:$H$73</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$62:$A$63</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$E$64:$E$73</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$F$62:$F$63</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$F$64:$F$73</definedName>
+    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$G$62:$G$63</definedName>
+    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$H$62:$H$63</definedName>
+    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$H$64:$H$73</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$64:$A$73</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$62:$B$62</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$B$64:$B$73</definedName>
+    <definedName name="_xlchart.v2.44" hidden="1">Sheet1!$A$1:$H$63</definedName>
+    <definedName name="_xlchart.v2.45" hidden="1">Sheet1!$A$62:$H$63</definedName>
+    <definedName name="_xlchart.v2.46" hidden="1">Sheet1!$A$64:$H$64</definedName>
+    <definedName name="_xlchart.v2.47" hidden="1">Sheet1!$A$65:$H$65</definedName>
+    <definedName name="_xlchart.v2.48" hidden="1">Sheet1!$A$66:$H$66</definedName>
+    <definedName name="_xlchart.v2.49" hidden="1">Sheet1!$A$67:$H$67</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$62:$C$63</definedName>
+    <definedName name="_xlchart.v2.50" hidden="1">Sheet1!$A$68:$H$68</definedName>
+    <definedName name="_xlchart.v2.51" hidden="1">Sheet1!$A$69:$H$69</definedName>
+    <definedName name="_xlchart.v2.52" hidden="1">Sheet1!$A$70:$H$70</definedName>
+    <definedName name="_xlchart.v2.53" hidden="1">Sheet1!$A$71:$H$71</definedName>
+    <definedName name="_xlchart.v2.54" hidden="1">Sheet1!$A$72:$H$72</definedName>
+    <definedName name="_xlchart.v2.55" hidden="1">Sheet1!$A$73:$H$73</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$C$64:$C$73</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$62:$D$63</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$D$64:$D$73</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$E$62:$E$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>NewBot</t>
   </si>
@@ -119,6 +181,30 @@
   </si>
   <si>
     <t>Super</t>
+  </si>
+  <si>
+    <t>Dani's call function</t>
+  </si>
+  <si>
+    <t>f(x): -0.25*x+15</t>
+  </si>
+  <si>
+    <t>f(x): -0.3*x+15</t>
+  </si>
+  <si>
+    <t>f(x): -0.35*x+15</t>
+  </si>
+  <si>
+    <t>f(x): -0.4*x+15</t>
+  </si>
+  <si>
+    <t>f(x): -0.45*x+15</t>
+  </si>
+  <si>
+    <t>f(x): -0.4*x+16</t>
+  </si>
+  <si>
+    <t>f(x): -0.4*x+14</t>
   </si>
 </sst>
 </file>
@@ -6068,6 +6154,1018 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$62:$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$62:$C$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.3*x+15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$B$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>46.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$62:$D$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.35*x+15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$64:$C$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$62:$E$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.4*x+15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$64:$D$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$62:$F$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.45*x+15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$62:$G$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.4*x+16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$64:$F$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$62:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Dani's call function</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>f(x): -0.4*x+14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$73</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$64:$H$73</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3929-894B-AFE3-88F78D4BCE85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="361405792"/>
+        <c:axId val="361407792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361405792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361407792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="361407792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361405792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -6380,6 +7478,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -9097,6 +10235,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9663,6 +11317,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>343728</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>64050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>303695</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>26878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABE7C36-C1FD-9787-A2DB-9A5342E33F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9968,10 +11658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825FD33D-8012-D14F-AAFB-06385A6474E2}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O44" zoomScale="172" workbookViewId="0">
-      <selection activeCell="AA53" sqref="AA53"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="182" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11494,6 +13184,294 @@
         <v>74.239999999999995</v>
       </c>
     </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1">
+        <v>46.2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>47</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45.9</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>45.4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>46</v>
+      </c>
+      <c r="H64" s="1">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="C65" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>29.2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30.9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="H65" s="1">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="D66" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="E66" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="F66" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="G66" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="H66" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H67" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>10</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,101 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Home/Python/PokerBotBattle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A59CE0-EB24-2E44-A9AC-FF2AA079E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF3CC4-1545-B147-9F8E-A686A2A24064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D1ADD933-2B3C-1D4B-86E3-C552A80188A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$62:$A$63</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$A$64:$A$73</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$B$62:$B$62</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$B$64:$B$73</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$C$62:$C$63</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$C$64:$C$73</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$62:$D$63</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$D$64:$D$73</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$E$62:$E$63</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$E$64:$E$73</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$F$62:$F$63</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$F$64:$F$73</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$G$62:$G$63</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$H$62:$H$63</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$H$64:$H$73</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$1:$H$63</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$62:$H$63</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$A$64:$H$64</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$A$65:$H$65</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$66:$H$66</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$67:$H$67</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$A$68:$H$68</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$A$69:$H$69</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$70:$H$70</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$71:$H$71</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$A$72:$H$72</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$A$73:$H$73</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$A$64:$A$73</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$B$62:$B$62</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$B$64:$B$73</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$C$62:$C$63</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$C$64:$C$73</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$D$62:$D$63</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$D$64:$D$73</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$E$62:$E$63</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$E$64:$E$73</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$F$62:$F$63</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$F$64:$F$73</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$G$62:$G$63</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$H$62:$H$63</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$H$64:$H$73</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$A$64:$A$73</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$B$62:$B$62</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$B$64:$B$73</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$C$62:$C$63</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$C$64:$C$73</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$D$62:$D$63</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$D$64:$D$73</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$E$62:$E$63</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$E$64:$E$73</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Sheet1!$F$62:$F$63</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Sheet1!$F$64:$F$73</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Sheet1!$G$62:$G$63</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Sheet1!$H$62:$H$63</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Sheet1!$H$64:$H$73</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$62:$A$63</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$E$64:$E$73</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$F$62:$F$63</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">Sheet1!$F$64:$F$73</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">Sheet1!$G$62:$G$63</definedName>
-    <definedName name="_xlchart.v2.14" hidden="1">Sheet1!$H$62:$H$63</definedName>
-    <definedName name="_xlchart.v2.15" hidden="1">Sheet1!$H$64:$H$73</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$A$64:$A$73</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$62:$B$62</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$B$64:$B$73</definedName>
-    <definedName name="_xlchart.v2.44" hidden="1">Sheet1!$A$1:$H$63</definedName>
-    <definedName name="_xlchart.v2.45" hidden="1">Sheet1!$A$62:$H$63</definedName>
-    <definedName name="_xlchart.v2.46" hidden="1">Sheet1!$A$64:$H$64</definedName>
-    <definedName name="_xlchart.v2.47" hidden="1">Sheet1!$A$65:$H$65</definedName>
-    <definedName name="_xlchart.v2.48" hidden="1">Sheet1!$A$66:$H$66</definedName>
-    <definedName name="_xlchart.v2.49" hidden="1">Sheet1!$A$67:$H$67</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$62:$C$63</definedName>
-    <definedName name="_xlchart.v2.50" hidden="1">Sheet1!$A$68:$H$68</definedName>
-    <definedName name="_xlchart.v2.51" hidden="1">Sheet1!$A$69:$H$69</definedName>
-    <definedName name="_xlchart.v2.52" hidden="1">Sheet1!$A$70:$H$70</definedName>
-    <definedName name="_xlchart.v2.53" hidden="1">Sheet1!$A$71:$H$71</definedName>
-    <definedName name="_xlchart.v2.54" hidden="1">Sheet1!$A$72:$H$72</definedName>
-    <definedName name="_xlchart.v2.55" hidden="1">Sheet1!$A$73:$H$73</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$C$64:$C$73</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$62:$D$63</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$D$64:$D$73</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$E$62:$E$63</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -124,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>NewBot</t>
   </si>
@@ -206,6 +118,9 @@
   <si>
     <t>f(x): -0.4*x+14</t>
   </si>
+  <si>
+    <t>DaniRedux</t>
+  </si>
 </sst>
 </file>
 
@@ -253,6 +168,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1075,6 +995,99 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FF12-4346-9E5C-F538B34B547E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DaniRedux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$39:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$39:$J$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D56D-DF41-BA67-BF53A9F0172E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2256,6 +2269,117 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DaniRedux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-092F-DB41-903F-DE5B2298477E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3427,6 +3551,117 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B00C-1F44-97A9-95C43A52778F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DaniRedux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$15:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>67.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF0B-8A43-AA2C-6B008B4CB841}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4608,6 +4843,117 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DaniRedux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF00FF"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$27:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$27:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65FD-2345-9EB8-1767B856C5EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4920,9 +5266,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$I$47</c:f>
+              <c:f>Sheet1!$B$47:$J$47</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -4946,16 +5292,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$48:$I$48</c:f>
+              <c:f>Sheet1!$B$48:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>46.93</c:v>
                 </c:pt>
@@ -4979,6 +5328,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.349999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5015,9 +5367,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$I$47</c:f>
+              <c:f>Sheet1!$B$47:$J$47</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5041,16 +5393,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$49:$I$49</c:f>
+              <c:f>Sheet1!$B$49:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>56.75</c:v>
                 </c:pt>
@@ -5074,6 +5429,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>89.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84.96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,9 +5468,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$I$47</c:f>
+              <c:f>Sheet1!$B$47:$J$47</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5136,16 +5494,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
+              <c:f>Sheet1!$B$50:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>62.2</c:v>
                 </c:pt>
@@ -5169,6 +5530,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>99.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,9 +5569,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$47:$I$47</c:f>
+              <c:f>Sheet1!$B$47:$J$47</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5231,16 +5595,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$I$51</c:f>
+              <c:f>Sheet1!$B$51:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>165.88</c:v>
                 </c:pt>
@@ -5264,6 +5631,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>255.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>184.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5584,9 +5954,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:f>Sheet1!$B$54:$J$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5610,16 +5980,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$56:$I$56</c:f>
+              <c:f>Sheet1!$B$56:$J$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>25.7</c:v>
                 </c:pt>
@@ -5640,6 +6013,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>21.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.540000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5676,9 +6052,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:f>Sheet1!$B$54:$J$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5702,16 +6078,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$57:$I$57</c:f>
+              <c:f>Sheet1!$B$57:$J$57</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>31.5</c:v>
                 </c:pt>
@@ -5735,6 +6114,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5771,9 +6153,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:f>Sheet1!$B$54:$J$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5797,16 +6179,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$58:$I$58</c:f>
+              <c:f>Sheet1!$B$58:$J$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>43.1</c:v>
                 </c:pt>
@@ -5830,6 +6215,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.569999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,9 +6254,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:f>Sheet1!$B$54:$J$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5892,16 +6280,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$59:$I$59</c:f>
+              <c:f>Sheet1!$B$59:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>35.700000000000003</c:v>
                 </c:pt>
@@ -5925,6 +6316,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>27.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5961,9 +6355,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$54:$I$55</c:f>
+              <c:f>Sheet1!$B$54:$J$55</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>NewBot</c:v>
                 </c:pt>
@@ -5987,16 +6381,19 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DaniRedux</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$60:$I$60</c:f>
+              <c:f>Sheet1!$B$60:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>78.800000000000011</c:v>
                 </c:pt>
@@ -6020,6 +6417,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>95.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6377,7 +6777,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF00FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11108,16 +11508,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>643466</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>118533</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11144,16 +11544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>78317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>740834</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>122767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11180,16 +11580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>226483</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11216,16 +11616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11252,16 +11652,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>353112</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657911</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>160904</xdr:rowOff>
+      <xdr:rowOff>177837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>154554</xdr:rowOff>
+      <xdr:rowOff>171487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11288,16 +11688,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>169334</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>719666</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11324,16 +11724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>343728</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800927</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>64050</xdr:rowOff>
+      <xdr:rowOff>199516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>303695</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>760894</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>26878</xdr:rowOff>
+      <xdr:rowOff>162344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11658,10 +12058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825FD33D-8012-D14F-AAFB-06385A6474E2}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="182" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11672,12 +12072,12 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -11702,8 +12102,11 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -11731,8 +12134,11 @@
       <c r="I3" s="1">
         <v>27.7</v>
       </c>
+      <c r="J3" s="1">
+        <v>27.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -11760,8 +12166,11 @@
       <c r="I4" s="1">
         <v>64.8</v>
       </c>
+      <c r="J4" s="1">
+        <v>61.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -11789,8 +12198,11 @@
       <c r="I5" s="1">
         <v>7.1</v>
       </c>
+      <c r="J5" s="1">
+        <v>10.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -11818,8 +12230,11 @@
       <c r="I6" s="1">
         <v>0.3</v>
       </c>
+      <c r="J6" s="1">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -11847,8 +12262,11 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -11876,8 +12294,11 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -11905,8 +12326,11 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -11934,8 +12358,11 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -11963,8 +12390,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -11992,13 +12422,16 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -12023,8 +12456,11 @@
       <c r="I14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -12052,8 +12488,11 @@
       <c r="I15" s="1">
         <v>46.5</v>
       </c>
+      <c r="J15" s="1">
+        <v>67.599999999999994</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -12081,8 +12520,11 @@
       <c r="I16" s="1">
         <v>27.5</v>
       </c>
+      <c r="J16" s="1">
+        <v>10.9</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -12110,8 +12552,11 @@
       <c r="I17" s="1">
         <v>15.7</v>
       </c>
+      <c r="J17" s="1">
+        <v>6.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>4</v>
       </c>
@@ -12139,8 +12584,11 @@
       <c r="I18" s="1">
         <v>6.5</v>
       </c>
+      <c r="J18" s="1">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -12168,8 +12616,11 @@
       <c r="I19" s="1">
         <v>2.5</v>
       </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -12197,8 +12648,11 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
+      <c r="J20" s="1">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -12226,8 +12680,11 @@
       <c r="I21" s="1">
         <v>0.3</v>
       </c>
+      <c r="J21" s="1">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>8</v>
       </c>
@@ -12255,8 +12712,11 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>9</v>
       </c>
@@ -12284,8 +12744,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
+      <c r="J23" s="1">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>10</v>
       </c>
@@ -12313,13 +12776,16 @@
       <c r="I24" s="1">
         <v>0</v>
       </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
@@ -12344,8 +12810,11 @@
       <c r="I26" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -12373,8 +12842,11 @@
       <c r="I27" s="1">
         <v>39.299999999999997</v>
       </c>
+      <c r="J27" s="1">
+        <v>68.5</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -12402,8 +12874,11 @@
       <c r="I28" s="1">
         <v>15.9</v>
       </c>
+      <c r="J28" s="1">
+        <v>8.1999999999999993</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -12431,8 +12906,11 @@
       <c r="I29" s="1">
         <v>10.9</v>
       </c>
+      <c r="J29" s="1">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -12460,8 +12938,11 @@
       <c r="I30" s="1">
         <v>7.8</v>
       </c>
+      <c r="J30" s="1">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>5</v>
       </c>
@@ -12489,8 +12970,11 @@
       <c r="I31" s="1">
         <v>7.9</v>
       </c>
+      <c r="J31" s="1">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>6</v>
       </c>
@@ -12518,8 +13002,11 @@
       <c r="I32" s="1">
         <v>6.9</v>
       </c>
+      <c r="J32" s="1">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7</v>
       </c>
@@ -12547,8 +13034,11 @@
       <c r="I33" s="1">
         <v>5.2</v>
       </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>8</v>
       </c>
@@ -12576,8 +13066,11 @@
       <c r="I34" s="1">
         <v>2.7</v>
       </c>
+      <c r="J34" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -12605,8 +13098,11 @@
       <c r="I35" s="1">
         <v>2</v>
       </c>
+      <c r="J35" s="1">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>10</v>
       </c>
@@ -12634,13 +13130,16 @@
       <c r="I36" s="1">
         <v>1.3</v>
       </c>
+      <c r="J36" s="1">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
@@ -12665,8 +13164,11 @@
       <c r="I38" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J38" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -12691,8 +13193,11 @@
       <c r="I39" s="1">
         <v>21.9</v>
       </c>
+      <c r="J39" s="1">
+        <v>75.5</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -12717,8 +13222,11 @@
       <c r="I40" s="1">
         <v>17.8</v>
       </c>
+      <c r="J40" s="1">
+        <v>6.8</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -12743,8 +13251,11 @@
       <c r="I41" s="1">
         <v>14</v>
       </c>
+      <c r="J41" s="1">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -12769,8 +13280,11 @@
       <c r="I42" s="1">
         <v>10.1</v>
       </c>
+      <c r="J42" s="1">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>5</v>
       </c>
@@ -12795,8 +13309,11 @@
       <c r="I43" s="1">
         <v>12.8</v>
       </c>
+      <c r="J43" s="1">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>6</v>
       </c>
@@ -12821,8 +13338,11 @@
       <c r="I44" s="1">
         <v>13.1</v>
       </c>
+      <c r="J44" s="1">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>7</v>
       </c>
@@ -12847,13 +13367,19 @@
       <c r="I45" s="1">
         <v>10.3</v>
       </c>
+      <c r="J45" s="1">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="J46" s="1">
+        <v>5.7</v>
+      </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
@@ -12878,8 +13404,11 @@
       <c r="I47" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J47" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -12907,8 +13436,11 @@
       <c r="I48" s="1">
         <v>66.099999999999994</v>
       </c>
+      <c r="J48" s="1">
+        <v>80.349999999999994</v>
+      </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -12936,8 +13468,11 @@
       <c r="I49" s="1">
         <v>89.68</v>
       </c>
+      <c r="J49" s="1">
+        <v>84.96</v>
+      </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>17</v>
       </c>
@@ -12965,8 +13500,11 @@
       <c r="I50" s="1">
         <v>99.68</v>
       </c>
+      <c r="J50" s="1">
+        <v>99.59</v>
+      </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -13002,13 +13540,17 @@
         <f>SUM(I48:I50)</f>
         <v>255.46</v>
       </c>
+      <c r="J51" s="1">
+        <f>SUM(J49:J50)</f>
+        <v>184.55</v>
+      </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
@@ -13033,8 +13575,11 @@
       <c r="I55" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="J55" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
@@ -13059,8 +13604,11 @@
       <c r="I56" s="1">
         <v>21.88</v>
       </c>
+      <c r="J56" s="1">
+        <v>75.540000000000006</v>
+      </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
@@ -13088,8 +13636,11 @@
       <c r="I57" s="1">
         <v>39.299999999999997</v>
       </c>
+      <c r="J57" s="1">
+        <v>68.55</v>
+      </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>16</v>
       </c>
@@ -13117,8 +13668,11 @@
       <c r="I58" s="1">
         <v>46.5</v>
       </c>
+      <c r="J58" s="1">
+        <v>67.569999999999993</v>
+      </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>17</v>
       </c>
@@ -13146,8 +13700,11 @@
       <c r="I59" s="1">
         <v>27.74</v>
       </c>
+      <c r="J59" s="1">
+        <v>27.73</v>
+      </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>14</v>
       </c>
@@ -13183,13 +13740,17 @@
         <f>SUM(I58:I59)</f>
         <v>74.239999999999995</v>
       </c>
+      <c r="J60" s="1">
+        <f>SUM(J58:J59)</f>
+        <v>95.3</v>
+      </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
@@ -13212,7 +13773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frederik/Home/Python/PokerBotBattle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF3CC4-1545-B147-9F8E-A686A2A24064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556580A-DFC2-0045-B674-FA6615692A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{D1ADD933-2B3C-1D4B-86E3-C552A80188A9}"/>
   </bookViews>
@@ -5630,7 +5630,7 @@
                   <c:v>194.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>255.46</c:v>
+                  <c:v>189.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>184.55</c:v>
@@ -12060,8 +12060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825FD33D-8012-D14F-AAFB-06385A6474E2}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="I44" zoomScale="174" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13537,8 +13537,8 @@
         <v>194.78</v>
       </c>
       <c r="I51" s="1">
-        <f>SUM(I48:I50)</f>
-        <v>255.46</v>
+        <f>SUM(I49:I50)</f>
+        <v>189.36</v>
       </c>
       <c r="J51" s="1">
         <f>SUM(J49:J50)</f>
